--- a/claims_data/ccs_midlevel_superlevel_xwalk.xlsx
+++ b/claims_data/ccs_midlevel_superlevel_xwalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kc1.sharepoint.com/teams/DPH-KCCross-SectorData/Shared Documents/General/References/ClinicalClassificationsSoftware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="13_ncr:1_{56B30ADE-6BB5-4B5B-B123-24194135FA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4147BB00-05E4-4A28-9A03-F7EE506004F8}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="13_ncr:1_{56B30ADE-6BB5-4B5B-B123-24194135FA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3D2C4B3-0CAB-43AA-AE92-F43C1DCE2AE5}"/>
   <bookViews>
     <workbookView xWindow="-168" yWindow="-13068" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B2DBCC19-7E77-4B3F-8016-070BF0D8C289}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3758" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="720">
   <si>
     <t>ver</t>
   </si>
@@ -10153,10 +10153,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF413161-1638-4324-A9A6-C0A43B551B85}">
-  <dimension ref="A1:D590"/>
+  <dimension ref="A1:D589"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10424,10 +10424,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>717</v>
@@ -10438,10 +10438,10 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="D20" t="s">
         <v>717</v>
@@ -10452,10 +10452,10 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>717</v>
@@ -10466,7 +10466,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -10480,7 +10480,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -10494,10 +10494,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
         <v>717</v>
@@ -10508,10 +10508,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>682</v>
       </c>
       <c r="D25" t="s">
         <v>717</v>
@@ -10522,10 +10522,10 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C26" t="s">
-        <v>682</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
         <v>717</v>
@@ -10536,10 +10536,10 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
+        <v>655</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
         <v>717</v>
@@ -10550,7 +10550,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>655</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
@@ -10564,7 +10564,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
@@ -10578,7 +10578,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
@@ -10589,16 +10589,16 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>717</v>
+        <v>678</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -10606,10 +10606,10 @@
         <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
         <v>678</v>
@@ -10620,10 +10620,10 @@
         <v>142</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
         <v>678</v>
@@ -10634,10 +10634,10 @@
         <v>142</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
         <v>678</v>
@@ -10648,10 +10648,10 @@
         <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>526</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
         <v>678</v>
@@ -10662,7 +10662,7 @@
         <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C36" t="s">
         <v>144</v>
@@ -10676,7 +10676,7 @@
         <v>142</v>
       </c>
       <c r="B37" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C37" t="s">
         <v>144</v>
@@ -10690,7 +10690,7 @@
         <v>142</v>
       </c>
       <c r="B38" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C38" t="s">
         <v>144</v>
@@ -10704,7 +10704,7 @@
         <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>524</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
         <v>144</v>
@@ -10718,7 +10718,7 @@
         <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>522</v>
       </c>
       <c r="C40" t="s">
         <v>144</v>
@@ -10729,27 +10729,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>522</v>
+        <v>210</v>
       </c>
       <c r="C41" t="s">
-        <v>144</v>
+        <v>673</v>
       </c>
       <c r="D41" t="s">
-        <v>678</v>
+        <v>716</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="C42" t="s">
-        <v>673</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
         <v>716</v>
@@ -10760,7 +10760,7 @@
         <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>290</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
         <v>71</v>
@@ -10774,7 +10774,7 @@
         <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>289</v>
       </c>
       <c r="C44" t="s">
         <v>71</v>
@@ -10788,7 +10788,7 @@
         <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C45" t="s">
         <v>71</v>
@@ -10802,7 +10802,7 @@
         <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C46" t="s">
         <v>71</v>
@@ -10816,7 +10816,7 @@
         <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C47" t="s">
         <v>71</v>
@@ -10830,10 +10830,10 @@
         <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
         <v>716</v>
@@ -10844,13 +10844,13 @@
         <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>291</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>693</v>
       </c>
       <c r="D49" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -10858,13 +10858,13 @@
         <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>291</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>693</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -10872,10 +10872,10 @@
         <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D51" t="s">
         <v>716</v>
@@ -10886,10 +10886,10 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D52" t="s">
         <v>716</v>
@@ -10897,13 +10897,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>364</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>364</v>
       </c>
       <c r="D53" t="s">
         <v>716</v>
@@ -10914,10 +10914,10 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C54" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D54" t="s">
         <v>716</v>
@@ -10928,10 +10928,10 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C55" t="s">
-        <v>372</v>
+        <v>696</v>
       </c>
       <c r="D55" t="s">
         <v>716</v>
@@ -10942,7 +10942,7 @@
         <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C56" t="s">
         <v>696</v>
@@ -10956,10 +10956,10 @@
         <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C57" t="s">
-        <v>696</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
         <v>716</v>
@@ -10970,7 +10970,7 @@
         <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="C58" t="s">
         <v>99</v>
@@ -10984,7 +10984,7 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>340</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
         <v>99</v>
@@ -10998,7 +10998,7 @@
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>376</v>
       </c>
       <c r="C60" t="s">
         <v>99</v>
@@ -11012,7 +11012,7 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>376</v>
+        <v>208</v>
       </c>
       <c r="C61" t="s">
         <v>99</v>
@@ -11026,7 +11026,7 @@
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>208</v>
+        <v>378</v>
       </c>
       <c r="C62" t="s">
         <v>99</v>
@@ -11040,7 +11040,7 @@
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C63" t="s">
         <v>99</v>
@@ -11054,13 +11054,13 @@
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>693</v>
       </c>
       <c r="D64" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -11068,13 +11068,13 @@
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C65" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="D65" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -11082,13 +11082,13 @@
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>374</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>684</v>
+        <v>104</v>
       </c>
       <c r="D66" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -11096,13 +11096,13 @@
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>361</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -11110,7 +11110,7 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -11124,7 +11124,7 @@
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
@@ -11138,7 +11138,7 @@
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
@@ -11152,7 +11152,7 @@
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
@@ -11166,7 +11166,7 @@
         <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>366</v>
+        <v>206</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -11180,10 +11180,10 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>206</v>
+        <v>360</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>683</v>
       </c>
       <c r="D73" t="s">
         <v>716</v>
@@ -11194,7 +11194,7 @@
         <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C74" t="s">
         <v>683</v>
@@ -11208,10 +11208,10 @@
         <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C75" t="s">
-        <v>683</v>
+        <v>102</v>
       </c>
       <c r="D75" t="s">
         <v>716</v>
@@ -11222,7 +11222,7 @@
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>362</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
         <v>102</v>
@@ -11236,10 +11236,10 @@
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>386</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>386</v>
       </c>
       <c r="D77" t="s">
         <v>716</v>
@@ -11250,10 +11250,10 @@
         <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>386</v>
+        <v>529</v>
       </c>
       <c r="C78" t="s">
-        <v>386</v>
+        <v>529</v>
       </c>
       <c r="D78" t="s">
         <v>716</v>
@@ -11264,10 +11264,10 @@
         <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>529</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
-        <v>529</v>
+        <v>694</v>
       </c>
       <c r="D79" t="s">
         <v>716</v>
@@ -11278,7 +11278,7 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C80" t="s">
         <v>694</v>
@@ -11292,7 +11292,7 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C81" t="s">
         <v>694</v>
@@ -11306,10 +11306,10 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>369</v>
       </c>
       <c r="C82" t="s">
-        <v>694</v>
+        <v>369</v>
       </c>
       <c r="D82" t="s">
         <v>716</v>
@@ -11320,10 +11320,10 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C83" t="s">
-        <v>369</v>
+        <v>695</v>
       </c>
       <c r="D83" t="s">
         <v>716</v>
@@ -11334,7 +11334,7 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C84" t="s">
         <v>695</v>
@@ -11348,7 +11348,7 @@
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C85" t="s">
         <v>695</v>
@@ -11362,7 +11362,7 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>380</v>
+        <v>207</v>
       </c>
       <c r="C86" t="s">
         <v>695</v>
@@ -11376,7 +11376,7 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>207</v>
+        <v>367</v>
       </c>
       <c r="C87" t="s">
         <v>695</v>
@@ -11390,7 +11390,7 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C88" t="s">
         <v>695</v>
@@ -11404,7 +11404,7 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>382</v>
+        <v>103</v>
       </c>
       <c r="C89" t="s">
         <v>695</v>
@@ -11418,7 +11418,7 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C90" t="s">
         <v>695</v>
@@ -11432,7 +11432,7 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="C91" t="s">
         <v>695</v>
@@ -11446,7 +11446,7 @@
         <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C92" t="s">
         <v>695</v>
@@ -11460,7 +11460,7 @@
         <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C93" t="s">
         <v>695</v>
@@ -11474,7 +11474,7 @@
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C94" t="s">
         <v>695</v>
@@ -11488,7 +11488,7 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="C95" t="s">
         <v>695</v>
@@ -11499,16 +11499,16 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>427</v>
+        <v>122</v>
       </c>
       <c r="C96" t="s">
-        <v>695</v>
+        <v>122</v>
       </c>
       <c r="D96" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -11516,13 +11516,13 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C97" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D97" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -11530,13 +11530,13 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>125</v>
+        <v>416</v>
       </c>
       <c r="C98" t="s">
-        <v>125</v>
+        <v>693</v>
       </c>
       <c r="D98" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -11544,13 +11544,13 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>416</v>
+        <v>119</v>
       </c>
       <c r="C99" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D99" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -11558,13 +11558,13 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>119</v>
+        <v>403</v>
       </c>
       <c r="C100" t="s">
-        <v>697</v>
+        <v>403</v>
       </c>
       <c r="D100" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -11572,13 +11572,13 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>403</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>403</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>664</v>
+        <v>717</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -11586,13 +11586,13 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>414</v>
       </c>
       <c r="C102" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="D102" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -11600,7 +11600,7 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>414</v>
+        <v>124</v>
       </c>
       <c r="C103" t="s">
         <v>124</v>
@@ -11614,7 +11614,7 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>124</v>
+        <v>415</v>
       </c>
       <c r="C104" t="s">
         <v>124</v>
@@ -11628,7 +11628,7 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>415</v>
+        <v>209</v>
       </c>
       <c r="C105" t="s">
         <v>124</v>
@@ -11642,10 +11642,10 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="D106" t="s">
         <v>716</v>
@@ -11656,7 +11656,7 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>204</v>
+        <v>408</v>
       </c>
       <c r="C107" t="s">
         <v>19</v>
@@ -11670,7 +11670,7 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>408</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s">
         <v>19</v>
@@ -11684,10 +11684,10 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>411</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>411</v>
       </c>
       <c r="D109" t="s">
         <v>716</v>
@@ -11698,7 +11698,7 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>411</v>
+        <v>123</v>
       </c>
       <c r="C110" t="s">
         <v>411</v>
@@ -11712,10 +11712,10 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>123</v>
+        <v>412</v>
       </c>
       <c r="C111" t="s">
-        <v>411</v>
+        <v>674</v>
       </c>
       <c r="D111" t="s">
         <v>716</v>
@@ -11726,7 +11726,7 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C112" t="s">
         <v>674</v>
@@ -11740,7 +11740,7 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C113" t="s">
         <v>674</v>
@@ -11754,7 +11754,7 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C114" t="s">
         <v>674</v>
@@ -11768,7 +11768,7 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>407</v>
+        <v>121</v>
       </c>
       <c r="C115" t="s">
         <v>674</v>
@@ -11782,7 +11782,7 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="C116" t="s">
         <v>674</v>
@@ -11796,7 +11796,7 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C117" t="s">
         <v>674</v>
@@ -11810,7 +11810,7 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>189</v>
+        <v>410</v>
       </c>
       <c r="C118" t="s">
         <v>674</v>
@@ -11824,10 +11824,10 @@
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>410</v>
+        <v>212</v>
       </c>
       <c r="C119" t="s">
-        <v>674</v>
+        <v>126</v>
       </c>
       <c r="D119" t="s">
         <v>716</v>
@@ -11838,10 +11838,10 @@
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C120" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D120" t="s">
         <v>716</v>
@@ -11852,7 +11852,7 @@
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>213</v>
+        <v>405</v>
       </c>
       <c r="C121" t="s">
         <v>107</v>
@@ -11866,7 +11866,7 @@
         <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C122" t="s">
         <v>107</v>
@@ -11880,7 +11880,7 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C123" t="s">
         <v>107</v>
@@ -11894,7 +11894,7 @@
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>406</v>
+        <v>107</v>
       </c>
       <c r="C124" t="s">
         <v>107</v>
@@ -11905,16 +11905,16 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B125" t="s">
-        <v>107</v>
+        <v>359</v>
       </c>
       <c r="C125" t="s">
-        <v>107</v>
+        <v>693</v>
       </c>
       <c r="D125" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -11922,13 +11922,13 @@
         <v>25</v>
       </c>
       <c r="B126" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C126" t="s">
-        <v>693</v>
+        <v>26</v>
       </c>
       <c r="D126" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -11936,7 +11936,7 @@
         <v>25</v>
       </c>
       <c r="B127" t="s">
-        <v>358</v>
+        <v>193</v>
       </c>
       <c r="C127" t="s">
         <v>26</v>
@@ -11950,7 +11950,7 @@
         <v>25</v>
       </c>
       <c r="B128" t="s">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="C128" t="s">
         <v>26</v>
@@ -11964,7 +11964,7 @@
         <v>25</v>
       </c>
       <c r="B129" t="s">
-        <v>26</v>
+        <v>323</v>
       </c>
       <c r="C129" t="s">
         <v>26</v>
@@ -11978,7 +11978,7 @@
         <v>25</v>
       </c>
       <c r="B130" t="s">
-        <v>323</v>
+        <v>214</v>
       </c>
       <c r="C130" t="s">
         <v>26</v>
@@ -11992,7 +11992,7 @@
         <v>25</v>
       </c>
       <c r="B131" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C131" t="s">
         <v>26</v>
@@ -12003,16 +12003,16 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>200</v>
+        <v>357</v>
       </c>
       <c r="C132" t="s">
-        <v>26</v>
+        <v>693</v>
       </c>
       <c r="D132" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -12020,13 +12020,13 @@
         <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C133" t="s">
-        <v>693</v>
+        <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -12034,7 +12034,7 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C134" t="s">
         <v>16</v>
@@ -12048,7 +12048,7 @@
         <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>352</v>
+        <v>191</v>
       </c>
       <c r="C135" t="s">
         <v>16</v>
@@ -12062,7 +12062,7 @@
         <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
         <v>16</v>
@@ -12076,7 +12076,7 @@
         <v>15</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>351</v>
       </c>
       <c r="C137" t="s">
         <v>16</v>
@@ -12090,7 +12090,7 @@
         <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>351</v>
+        <v>202</v>
       </c>
       <c r="C138" t="s">
         <v>16</v>
@@ -12104,7 +12104,7 @@
         <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>202</v>
+        <v>349</v>
       </c>
       <c r="C139" t="s">
         <v>16</v>
@@ -12118,7 +12118,7 @@
         <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>349</v>
+        <v>190</v>
       </c>
       <c r="C140" t="s">
         <v>16</v>
@@ -12132,7 +12132,7 @@
         <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="C141" t="s">
         <v>16</v>
@@ -12146,7 +12146,7 @@
         <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>355</v>
+        <v>192</v>
       </c>
       <c r="C142" t="s">
         <v>16</v>
@@ -12160,7 +12160,7 @@
         <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="C143" t="s">
         <v>16</v>
@@ -12174,7 +12174,7 @@
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C144" t="s">
         <v>16</v>
@@ -12185,13 +12185,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>350</v>
+        <v>466</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>466</v>
       </c>
       <c r="D145" t="s">
         <v>716</v>
@@ -12202,10 +12202,10 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C146" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D146" t="s">
         <v>716</v>
@@ -12216,10 +12216,10 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C147" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D147" t="s">
         <v>716</v>
@@ -12230,13 +12230,13 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="C148" t="s">
-        <v>467</v>
+        <v>693</v>
       </c>
       <c r="D148" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -12244,13 +12244,13 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="C149" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="D149" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -12258,7 +12258,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>535</v>
+        <v>491</v>
       </c>
       <c r="C150" t="s">
         <v>665</v>
@@ -12272,7 +12272,7 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>491</v>
+        <v>324</v>
       </c>
       <c r="C151" t="s">
         <v>665</v>
@@ -12286,7 +12286,7 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>324</v>
+        <v>21</v>
       </c>
       <c r="C152" t="s">
         <v>665</v>
@@ -12300,10 +12300,10 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="C153" t="s">
-        <v>665</v>
+        <v>199</v>
       </c>
       <c r="D153" t="s">
         <v>716</v>
@@ -12314,10 +12314,10 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C154" t="s">
-        <v>199</v>
+        <v>699</v>
       </c>
       <c r="D154" t="s">
         <v>716</v>
@@ -12328,7 +12328,7 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C155" t="s">
         <v>699</v>
@@ -12342,7 +12342,7 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>185</v>
+        <v>465</v>
       </c>
       <c r="C156" t="s">
         <v>699</v>
@@ -12356,10 +12356,10 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C157" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D157" t="s">
         <v>716</v>
@@ -12370,7 +12370,7 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C158" t="s">
         <v>698</v>
@@ -12384,7 +12384,7 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C159" t="s">
         <v>698</v>
@@ -12398,7 +12398,7 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C160" t="s">
         <v>698</v>
@@ -12412,7 +12412,7 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>480</v>
+        <v>59</v>
       </c>
       <c r="C161" t="s">
         <v>698</v>
@@ -12426,7 +12426,7 @@
         <v>20</v>
       </c>
       <c r="B162" t="s">
-        <v>59</v>
+        <v>469</v>
       </c>
       <c r="C162" t="s">
         <v>698</v>
@@ -12440,7 +12440,7 @@
         <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>469</v>
+        <v>187</v>
       </c>
       <c r="C163" t="s">
         <v>698</v>
@@ -12454,7 +12454,7 @@
         <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C164" t="s">
         <v>698</v>
@@ -12468,7 +12468,7 @@
         <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>188</v>
+        <v>471</v>
       </c>
       <c r="C165" t="s">
         <v>698</v>
@@ -12482,7 +12482,7 @@
         <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>471</v>
+        <v>127</v>
       </c>
       <c r="C166" t="s">
         <v>698</v>
@@ -12496,7 +12496,7 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>127</v>
+        <v>479</v>
       </c>
       <c r="C167" t="s">
         <v>698</v>
@@ -12510,7 +12510,7 @@
         <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C168" t="s">
         <v>698</v>
@@ -12524,7 +12524,7 @@
         <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C169" t="s">
         <v>698</v>
@@ -12538,7 +12538,7 @@
         <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C170" t="s">
         <v>698</v>
@@ -12552,7 +12552,7 @@
         <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C171" t="s">
         <v>698</v>
@@ -12566,7 +12566,7 @@
         <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C172" t="s">
         <v>698</v>
@@ -12580,27 +12580,27 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>475</v>
+        <v>181</v>
       </c>
       <c r="C173" t="s">
-        <v>698</v>
+        <v>181</v>
       </c>
       <c r="D173" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="C174" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="D174" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -12608,7 +12608,7 @@
         <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>137</v>
+        <v>442</v>
       </c>
       <c r="C175" t="s">
         <v>137</v>
@@ -12622,13 +12622,13 @@
         <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="C176" t="s">
-        <v>137</v>
+        <v>693</v>
       </c>
       <c r="D176" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -12636,13 +12636,13 @@
         <v>11</v>
       </c>
       <c r="B177" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C177" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="D177" t="s">
-        <v>664</v>
+        <v>700</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -12650,7 +12650,7 @@
         <v>11</v>
       </c>
       <c r="B178" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C178" t="s">
         <v>679</v>
@@ -12664,7 +12664,7 @@
         <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C179" t="s">
         <v>679</v>
@@ -12678,7 +12678,7 @@
         <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C180" t="s">
         <v>679</v>
@@ -12692,13 +12692,13 @@
         <v>11</v>
       </c>
       <c r="B181" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C181" t="s">
-        <v>679</v>
+        <v>701</v>
       </c>
       <c r="D181" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -12706,7 +12706,7 @@
         <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C182" t="s">
         <v>701</v>
@@ -12720,13 +12720,13 @@
         <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C183" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="D183" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -12734,7 +12734,7 @@
         <v>11</v>
       </c>
       <c r="B184" t="s">
-        <v>430</v>
+        <v>12</v>
       </c>
       <c r="C184" t="s">
         <v>706</v>
@@ -12748,13 +12748,13 @@
         <v>11</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>439</v>
       </c>
       <c r="C185" t="s">
-        <v>706</v>
+        <v>136</v>
       </c>
       <c r="D185" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -12762,13 +12762,13 @@
         <v>11</v>
       </c>
       <c r="B186" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C186" t="s">
-        <v>136</v>
+        <v>440</v>
       </c>
       <c r="D186" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -12776,10 +12776,10 @@
         <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>440</v>
+        <v>140</v>
       </c>
       <c r="C187" t="s">
-        <v>440</v>
+        <v>140</v>
       </c>
       <c r="D187" t="s">
         <v>716</v>
@@ -12790,10 +12790,10 @@
         <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>140</v>
+        <v>429</v>
       </c>
       <c r="C188" t="s">
-        <v>140</v>
+        <v>705</v>
       </c>
       <c r="D188" t="s">
         <v>716</v>
@@ -12804,7 +12804,7 @@
         <v>11</v>
       </c>
       <c r="B189" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="C189" t="s">
         <v>705</v>
@@ -12818,7 +12818,7 @@
         <v>11</v>
       </c>
       <c r="B190" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C190" t="s">
         <v>705</v>
@@ -12832,7 +12832,7 @@
         <v>11</v>
       </c>
       <c r="B191" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C191" t="s">
         <v>705</v>
@@ -12846,7 +12846,7 @@
         <v>11</v>
       </c>
       <c r="B192" t="s">
-        <v>445</v>
+        <v>139</v>
       </c>
       <c r="C192" t="s">
         <v>705</v>
@@ -12860,10 +12860,10 @@
         <v>11</v>
       </c>
       <c r="B193" t="s">
-        <v>139</v>
+        <v>433</v>
       </c>
       <c r="C193" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D193" t="s">
         <v>716</v>
@@ -12874,7 +12874,7 @@
         <v>11</v>
       </c>
       <c r="B194" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="C194" t="s">
         <v>704</v>
@@ -12888,7 +12888,7 @@
         <v>11</v>
       </c>
       <c r="B195" t="s">
-        <v>463</v>
+        <v>94</v>
       </c>
       <c r="C195" t="s">
         <v>704</v>
@@ -12902,7 +12902,7 @@
         <v>11</v>
       </c>
       <c r="B196" t="s">
-        <v>94</v>
+        <v>438</v>
       </c>
       <c r="C196" t="s">
         <v>704</v>
@@ -12916,10 +12916,10 @@
         <v>11</v>
       </c>
       <c r="B197" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C197" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
       <c r="D197" t="s">
         <v>716</v>
@@ -12930,7 +12930,7 @@
         <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>432</v>
+        <v>135</v>
       </c>
       <c r="C198" t="s">
         <v>676</v>
@@ -12944,7 +12944,7 @@
         <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>135</v>
+        <v>435</v>
       </c>
       <c r="C199" t="s">
         <v>676</v>
@@ -12958,7 +12958,7 @@
         <v>11</v>
       </c>
       <c r="B200" t="s">
-        <v>435</v>
+        <v>348</v>
       </c>
       <c r="C200" t="s">
         <v>676</v>
@@ -12972,7 +12972,7 @@
         <v>11</v>
       </c>
       <c r="B201" t="s">
-        <v>348</v>
+        <v>421</v>
       </c>
       <c r="C201" t="s">
         <v>676</v>
@@ -12986,7 +12986,7 @@
         <v>11</v>
       </c>
       <c r="B202" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C202" t="s">
         <v>676</v>
@@ -13000,10 +13000,10 @@
         <v>11</v>
       </c>
       <c r="B203" t="s">
-        <v>431</v>
+        <v>141</v>
       </c>
       <c r="C203" t="s">
-        <v>676</v>
+        <v>702</v>
       </c>
       <c r="D203" t="s">
         <v>716</v>
@@ -13014,7 +13014,7 @@
         <v>11</v>
       </c>
       <c r="B204" t="s">
-        <v>141</v>
+        <v>452</v>
       </c>
       <c r="C204" t="s">
         <v>702</v>
@@ -13028,7 +13028,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C205" t="s">
         <v>702</v>
@@ -13042,7 +13042,7 @@
         <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C206" t="s">
         <v>702</v>
@@ -13056,10 +13056,10 @@
         <v>11</v>
       </c>
       <c r="B207" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="C207" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D207" t="s">
         <v>716</v>
@@ -13070,10 +13070,10 @@
         <v>11</v>
       </c>
       <c r="B208" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="C208" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="D208" t="s">
         <v>716</v>
@@ -13084,7 +13084,7 @@
         <v>11</v>
       </c>
       <c r="B209" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C209" t="s">
         <v>677</v>
@@ -13098,7 +13098,7 @@
         <v>11</v>
       </c>
       <c r="B210" t="s">
-        <v>444</v>
+        <v>138</v>
       </c>
       <c r="C210" t="s">
         <v>677</v>
@@ -13112,7 +13112,7 @@
         <v>11</v>
       </c>
       <c r="B211" t="s">
-        <v>138</v>
+        <v>423</v>
       </c>
       <c r="C211" t="s">
         <v>677</v>
@@ -13126,10 +13126,10 @@
         <v>11</v>
       </c>
       <c r="B212" t="s">
-        <v>423</v>
+        <v>134</v>
       </c>
       <c r="C212" t="s">
-        <v>677</v>
+        <v>134</v>
       </c>
       <c r="D212" t="s">
         <v>716</v>
@@ -13137,13 +13137,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B213" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C213" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="D213" t="s">
         <v>716</v>
@@ -13154,13 +13154,13 @@
         <v>7</v>
       </c>
       <c r="B214" t="s">
-        <v>100</v>
+        <v>347</v>
       </c>
       <c r="C214" t="s">
-        <v>100</v>
+        <v>693</v>
       </c>
       <c r="D214" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -13168,13 +13168,13 @@
         <v>7</v>
       </c>
       <c r="B215" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="C215" t="s">
-        <v>693</v>
+        <v>78</v>
       </c>
       <c r="D215" t="s">
-        <v>664</v>
+        <v>718</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -13182,13 +13182,13 @@
         <v>7</v>
       </c>
       <c r="B216" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="C216" t="s">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="D216" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -13196,13 +13196,13 @@
         <v>7</v>
       </c>
       <c r="B217" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C217" t="s">
-        <v>326</v>
+        <v>707</v>
       </c>
       <c r="D217" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -13210,7 +13210,7 @@
         <v>7</v>
       </c>
       <c r="B218" t="s">
-        <v>338</v>
+        <v>98</v>
       </c>
       <c r="C218" t="s">
         <v>707</v>
@@ -13224,13 +13224,13 @@
         <v>7</v>
       </c>
       <c r="B219" t="s">
-        <v>98</v>
+        <v>339</v>
       </c>
       <c r="C219" t="s">
-        <v>707</v>
+        <v>339</v>
       </c>
       <c r="D219" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -13238,13 +13238,13 @@
         <v>7</v>
       </c>
       <c r="B220" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C220" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="D220" t="s">
-        <v>664</v>
+        <v>717</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -13252,13 +13252,13 @@
         <v>7</v>
       </c>
       <c r="B221" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C221" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D221" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -13266,13 +13266,13 @@
         <v>7</v>
       </c>
       <c r="B222" t="s">
-        <v>337</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>337</v>
+        <v>662</v>
       </c>
       <c r="D222" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -13280,7 +13280,7 @@
         <v>7</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>334</v>
       </c>
       <c r="C223" t="s">
         <v>662</v>
@@ -13294,13 +13294,13 @@
         <v>7</v>
       </c>
       <c r="B224" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C224" t="s">
-        <v>662</v>
+        <v>93</v>
       </c>
       <c r="D224" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -13308,7 +13308,7 @@
         <v>7</v>
       </c>
       <c r="B225" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C225" t="s">
         <v>93</v>
@@ -13322,7 +13322,7 @@
         <v>7</v>
       </c>
       <c r="B226" t="s">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="C226" t="s">
         <v>93</v>
@@ -13336,7 +13336,7 @@
         <v>7</v>
       </c>
       <c r="B227" t="s">
-        <v>95</v>
+        <v>344</v>
       </c>
       <c r="C227" t="s">
         <v>93</v>
@@ -13350,7 +13350,7 @@
         <v>7</v>
       </c>
       <c r="B228" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C228" t="s">
         <v>93</v>
@@ -13364,7 +13364,7 @@
         <v>7</v>
       </c>
       <c r="B229" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C229" t="s">
         <v>93</v>
@@ -13378,7 +13378,7 @@
         <v>7</v>
       </c>
       <c r="B230" t="s">
-        <v>346</v>
+        <v>93</v>
       </c>
       <c r="C230" t="s">
         <v>93</v>
@@ -13392,7 +13392,7 @@
         <v>7</v>
       </c>
       <c r="B231" t="s">
-        <v>93</v>
+        <v>343</v>
       </c>
       <c r="C231" t="s">
         <v>93</v>
@@ -13406,7 +13406,7 @@
         <v>7</v>
       </c>
       <c r="B232" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C232" t="s">
         <v>93</v>
@@ -13420,7 +13420,7 @@
         <v>7</v>
       </c>
       <c r="B233" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C233" t="s">
         <v>93</v>
@@ -13434,10 +13434,10 @@
         <v>7</v>
       </c>
       <c r="B234" t="s">
-        <v>320</v>
+        <v>97</v>
       </c>
       <c r="C234" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D234" t="s">
         <v>716</v>
@@ -13448,10 +13448,10 @@
         <v>7</v>
       </c>
       <c r="B235" t="s">
-        <v>97</v>
+        <v>335</v>
       </c>
       <c r="C235" t="s">
-        <v>97</v>
+        <v>708</v>
       </c>
       <c r="D235" t="s">
         <v>716</v>
@@ -13462,10 +13462,10 @@
         <v>7</v>
       </c>
       <c r="B236" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C236" t="s">
-        <v>708</v>
+        <v>341</v>
       </c>
       <c r="D236" t="s">
         <v>716</v>
@@ -13473,16 +13473,16 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B237" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="C237" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="D237" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -13490,10 +13490,10 @@
         <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C238" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D238" t="s">
         <v>717</v>
@@ -13504,13 +13504,13 @@
         <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C239" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D239" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -13518,10 +13518,10 @@
         <v>9</v>
       </c>
       <c r="B240" t="s">
-        <v>397</v>
+        <v>111</v>
       </c>
       <c r="C240" t="s">
-        <v>397</v>
+        <v>111</v>
       </c>
       <c r="D240" t="s">
         <v>716</v>
@@ -13532,10 +13532,10 @@
         <v>9</v>
       </c>
       <c r="B241" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C241" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D241" t="s">
         <v>716</v>
@@ -13546,13 +13546,13 @@
         <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>110</v>
+        <v>402</v>
       </c>
       <c r="C242" t="s">
-        <v>110</v>
+        <v>693</v>
       </c>
       <c r="D242" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -13560,13 +13560,13 @@
         <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C243" t="s">
-        <v>693</v>
+        <v>392</v>
       </c>
       <c r="D243" t="s">
-        <v>664</v>
+        <v>717</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -13574,13 +13574,13 @@
         <v>9</v>
       </c>
       <c r="B244" t="s">
-        <v>392</v>
+        <v>112</v>
       </c>
       <c r="C244" t="s">
-        <v>392</v>
+        <v>112</v>
       </c>
       <c r="D244" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -13588,13 +13588,13 @@
         <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>112</v>
+        <v>399</v>
       </c>
       <c r="C245" t="s">
-        <v>112</v>
+        <v>399</v>
       </c>
       <c r="D245" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -13602,10 +13602,10 @@
         <v>9</v>
       </c>
       <c r="B246" t="s">
-        <v>399</v>
+        <v>115</v>
       </c>
       <c r="C246" t="s">
-        <v>399</v>
+        <v>115</v>
       </c>
       <c r="D246" t="s">
         <v>716</v>
@@ -13616,10 +13616,10 @@
         <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C247" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D247" t="s">
         <v>716</v>
@@ -13630,13 +13630,13 @@
         <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>108</v>
+        <v>388</v>
       </c>
       <c r="C248" t="s">
-        <v>108</v>
+        <v>663</v>
       </c>
       <c r="D248" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -13644,7 +13644,7 @@
         <v>9</v>
       </c>
       <c r="B249" t="s">
-        <v>388</v>
+        <v>10</v>
       </c>
       <c r="C249" t="s">
         <v>663</v>
@@ -13658,7 +13658,7 @@
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>389</v>
       </c>
       <c r="C250" t="s">
         <v>663</v>
@@ -13672,13 +13672,13 @@
         <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="C251" t="s">
-        <v>663</v>
+        <v>114</v>
       </c>
       <c r="D251" t="s">
-        <v>717</v>
+        <v>664</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -13686,7 +13686,7 @@
         <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C252" t="s">
         <v>114</v>
@@ -13700,13 +13700,13 @@
         <v>9</v>
       </c>
       <c r="B253" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C253" t="s">
-        <v>114</v>
+        <v>685</v>
       </c>
       <c r="D253" t="s">
-        <v>664</v>
+        <v>717</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -13714,27 +13714,27 @@
         <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C254" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="D254" t="s">
-        <v>717</v>
+        <v>664</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B255" t="s">
-        <v>398</v>
+        <v>133</v>
       </c>
       <c r="C255" t="s">
-        <v>672</v>
+        <v>133</v>
       </c>
       <c r="D255" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -13742,13 +13742,13 @@
         <v>13</v>
       </c>
       <c r="B256" t="s">
-        <v>133</v>
+        <v>424</v>
       </c>
       <c r="C256" t="s">
-        <v>133</v>
+        <v>693</v>
       </c>
       <c r="D256" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -13756,13 +13756,13 @@
         <v>13</v>
       </c>
       <c r="B257" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C257" t="s">
-        <v>693</v>
+        <v>132</v>
       </c>
       <c r="D257" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -13770,7 +13770,7 @@
         <v>13</v>
       </c>
       <c r="B258" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C258" t="s">
         <v>132</v>
@@ -13784,7 +13784,7 @@
         <v>13</v>
       </c>
       <c r="B259" t="s">
-        <v>428</v>
+        <v>131</v>
       </c>
       <c r="C259" t="s">
         <v>132</v>
@@ -13798,7 +13798,7 @@
         <v>13</v>
       </c>
       <c r="B260" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C260" t="s">
         <v>132</v>
@@ -13812,7 +13812,7 @@
         <v>13</v>
       </c>
       <c r="B261" t="s">
-        <v>132</v>
+        <v>425</v>
       </c>
       <c r="C261" t="s">
         <v>132</v>
@@ -13826,27 +13826,27 @@
         <v>13</v>
       </c>
       <c r="B262" t="s">
-        <v>425</v>
+        <v>14</v>
       </c>
       <c r="C262" t="s">
-        <v>132</v>
+        <v>417</v>
       </c>
       <c r="D262" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B263" t="s">
-        <v>14</v>
+        <v>294</v>
       </c>
       <c r="C263" t="s">
-        <v>417</v>
+        <v>693</v>
       </c>
       <c r="D263" t="s">
-        <v>717</v>
+        <v>664</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -13854,13 +13854,13 @@
         <v>54</v>
       </c>
       <c r="B264" t="s">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="C264" t="s">
-        <v>693</v>
+        <v>67</v>
       </c>
       <c r="D264" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -13868,10 +13868,10 @@
         <v>54</v>
       </c>
       <c r="B265" t="s">
-        <v>67</v>
+        <v>292</v>
       </c>
       <c r="C265" t="s">
-        <v>67</v>
+        <v>667</v>
       </c>
       <c r="D265" t="s">
         <v>716</v>
@@ -13882,7 +13882,7 @@
         <v>54</v>
       </c>
       <c r="B266" t="s">
-        <v>292</v>
+        <v>56</v>
       </c>
       <c r="C266" t="s">
         <v>667</v>
@@ -13896,10 +13896,10 @@
         <v>54</v>
       </c>
       <c r="B267" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C267" t="s">
-        <v>667</v>
+        <v>64</v>
       </c>
       <c r="D267" t="s">
         <v>716</v>
@@ -13910,10 +13910,10 @@
         <v>54</v>
       </c>
       <c r="B268" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C268" t="s">
-        <v>64</v>
+        <v>701</v>
       </c>
       <c r="D268" t="s">
         <v>716</v>
@@ -13924,10 +13924,10 @@
         <v>54</v>
       </c>
       <c r="B269" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C269" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="D269" t="s">
         <v>716</v>
@@ -13938,10 +13938,10 @@
         <v>54</v>
       </c>
       <c r="B270" t="s">
-        <v>62</v>
+        <v>298</v>
       </c>
       <c r="C270" t="s">
-        <v>709</v>
+        <v>298</v>
       </c>
       <c r="D270" t="s">
         <v>716</v>
@@ -13952,10 +13952,10 @@
         <v>54</v>
       </c>
       <c r="B271" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C271" t="s">
-        <v>298</v>
+        <v>61</v>
       </c>
       <c r="D271" t="s">
         <v>716</v>
@@ -13966,7 +13966,7 @@
         <v>54</v>
       </c>
       <c r="B272" t="s">
-        <v>295</v>
+        <v>60</v>
       </c>
       <c r="C272" t="s">
         <v>61</v>
@@ -13980,7 +13980,7 @@
         <v>54</v>
       </c>
       <c r="B273" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C273" t="s">
         <v>61</v>
@@ -13994,7 +13994,7 @@
         <v>54</v>
       </c>
       <c r="B274" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C274" t="s">
         <v>61</v>
@@ -14008,7 +14008,7 @@
         <v>54</v>
       </c>
       <c r="B275" t="s">
-        <v>61</v>
+        <v>293</v>
       </c>
       <c r="C275" t="s">
         <v>61</v>
@@ -14022,7 +14022,7 @@
         <v>54</v>
       </c>
       <c r="B276" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C276" t="s">
         <v>61</v>
@@ -14036,10 +14036,10 @@
         <v>54</v>
       </c>
       <c r="B277" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="C277" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D277" t="s">
         <v>716</v>
@@ -14047,16 +14047,16 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="B278" t="s">
-        <v>55</v>
+        <v>597</v>
       </c>
       <c r="C278" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="D278" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -14064,13 +14064,13 @@
         <v>171</v>
       </c>
       <c r="B279" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="C279" t="s">
-        <v>170</v>
+        <v>693</v>
       </c>
       <c r="D279" t="s">
-        <v>700</v>
+        <v>664</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -14078,13 +14078,13 @@
         <v>171</v>
       </c>
       <c r="B280" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C280" t="s">
-        <v>693</v>
+        <v>163</v>
       </c>
       <c r="D280" t="s">
-        <v>664</v>
+        <v>700</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -14092,7 +14092,7 @@
         <v>171</v>
       </c>
       <c r="B281" t="s">
-        <v>628</v>
+        <v>598</v>
       </c>
       <c r="C281" t="s">
         <v>163</v>
@@ -14106,7 +14106,7 @@
         <v>171</v>
       </c>
       <c r="B282" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="C282" t="s">
         <v>163</v>
@@ -14120,7 +14120,7 @@
         <v>171</v>
       </c>
       <c r="B283" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="C283" t="s">
         <v>163</v>
@@ -14134,7 +14134,7 @@
         <v>171</v>
       </c>
       <c r="B284" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="C284" t="s">
         <v>163</v>
@@ -14148,7 +14148,7 @@
         <v>171</v>
       </c>
       <c r="B285" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="C285" t="s">
         <v>163</v>
@@ -14162,7 +14162,7 @@
         <v>171</v>
       </c>
       <c r="B286" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C286" t="s">
         <v>163</v>
@@ -14176,7 +14176,7 @@
         <v>171</v>
       </c>
       <c r="B287" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C287" t="s">
         <v>163</v>
@@ -14190,7 +14190,7 @@
         <v>171</v>
       </c>
       <c r="B288" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C288" t="s">
         <v>163</v>
@@ -14204,7 +14204,7 @@
         <v>171</v>
       </c>
       <c r="B289" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="C289" t="s">
         <v>163</v>
@@ -14218,7 +14218,7 @@
         <v>171</v>
       </c>
       <c r="B290" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="C290" t="s">
         <v>163</v>
@@ -14232,7 +14232,7 @@
         <v>171</v>
       </c>
       <c r="B291" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="C291" t="s">
         <v>163</v>
@@ -14246,7 +14246,7 @@
         <v>171</v>
       </c>
       <c r="B292" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="C292" t="s">
         <v>163</v>
@@ -14260,7 +14260,7 @@
         <v>171</v>
       </c>
       <c r="B293" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C293" t="s">
         <v>163</v>
@@ -14274,7 +14274,7 @@
         <v>171</v>
       </c>
       <c r="B294" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="C294" t="s">
         <v>163</v>
@@ -14288,7 +14288,7 @@
         <v>171</v>
       </c>
       <c r="B295" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="C295" t="s">
         <v>163</v>
@@ -14302,7 +14302,7 @@
         <v>171</v>
       </c>
       <c r="B296" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C296" t="s">
         <v>163</v>
@@ -14316,7 +14316,7 @@
         <v>171</v>
       </c>
       <c r="B297" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C297" t="s">
         <v>163</v>
@@ -14330,7 +14330,7 @@
         <v>171</v>
       </c>
       <c r="B298" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="C298" t="s">
         <v>163</v>
@@ -14344,7 +14344,7 @@
         <v>171</v>
       </c>
       <c r="B299" t="s">
-        <v>582</v>
+        <v>621</v>
       </c>
       <c r="C299" t="s">
         <v>163</v>
@@ -14358,7 +14358,7 @@
         <v>171</v>
       </c>
       <c r="B300" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="C300" t="s">
         <v>163</v>
@@ -14372,7 +14372,7 @@
         <v>171</v>
       </c>
       <c r="B301" t="s">
-        <v>579</v>
+        <v>171</v>
       </c>
       <c r="C301" t="s">
         <v>163</v>
@@ -14386,10 +14386,10 @@
         <v>171</v>
       </c>
       <c r="B302" t="s">
-        <v>171</v>
+        <v>588</v>
       </c>
       <c r="C302" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="D302" t="s">
         <v>700</v>
@@ -14400,7 +14400,7 @@
         <v>171</v>
       </c>
       <c r="B303" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="C303" t="s">
         <v>120</v>
@@ -14411,16 +14411,16 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B304" t="s">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="C304" t="s">
-        <v>120</v>
+        <v>668</v>
       </c>
       <c r="D304" t="s">
-        <v>700</v>
+        <v>664</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -14428,7 +14428,7 @@
         <v>160</v>
       </c>
       <c r="B305" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C305" t="s">
         <v>668</v>
@@ -14442,7 +14442,7 @@
         <v>160</v>
       </c>
       <c r="B306" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C306" t="s">
         <v>668</v>
@@ -14456,7 +14456,7 @@
         <v>160</v>
       </c>
       <c r="B307" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C307" t="s">
         <v>668</v>
@@ -14470,7 +14470,7 @@
         <v>160</v>
       </c>
       <c r="B308" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="C308" t="s">
         <v>668</v>
@@ -14484,7 +14484,7 @@
         <v>160</v>
       </c>
       <c r="B309" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C309" t="s">
         <v>668</v>
@@ -14498,10 +14498,10 @@
         <v>160</v>
       </c>
       <c r="B310" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="C310" t="s">
-        <v>668</v>
+        <v>174</v>
       </c>
       <c r="D310" t="s">
         <v>664</v>
@@ -14512,13 +14512,13 @@
         <v>160</v>
       </c>
       <c r="B311" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="C311" t="s">
-        <v>174</v>
+        <v>640</v>
       </c>
       <c r="D311" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -14526,13 +14526,13 @@
         <v>160</v>
       </c>
       <c r="B312" t="s">
-        <v>640</v>
+        <v>509</v>
       </c>
       <c r="C312" t="s">
-        <v>640</v>
+        <v>162</v>
       </c>
       <c r="D312" t="s">
-        <v>666</v>
+        <v>717</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -14540,7 +14540,7 @@
         <v>160</v>
       </c>
       <c r="B313" t="s">
-        <v>509</v>
+        <v>327</v>
       </c>
       <c r="C313" t="s">
         <v>162</v>
@@ -14554,7 +14554,7 @@
         <v>160</v>
       </c>
       <c r="B314" t="s">
-        <v>327</v>
+        <v>638</v>
       </c>
       <c r="C314" t="s">
         <v>162</v>
@@ -14568,13 +14568,13 @@
         <v>160</v>
       </c>
       <c r="B315" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="C315" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="D315" t="s">
-        <v>717</v>
+        <v>664</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -14582,7 +14582,7 @@
         <v>160</v>
       </c>
       <c r="B316" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="C316" t="s">
         <v>178</v>
@@ -14596,10 +14596,10 @@
         <v>160</v>
       </c>
       <c r="B317" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="C317" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D317" t="s">
         <v>664</v>
@@ -14610,7 +14610,7 @@
         <v>160</v>
       </c>
       <c r="B318" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="C318" t="s">
         <v>175</v>
@@ -14624,7 +14624,7 @@
         <v>160</v>
       </c>
       <c r="B319" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C319" t="s">
         <v>175</v>
@@ -14638,7 +14638,7 @@
         <v>160</v>
       </c>
       <c r="B320" t="s">
-        <v>647</v>
+        <v>175</v>
       </c>
       <c r="C320" t="s">
         <v>175</v>
@@ -14652,13 +14652,13 @@
         <v>160</v>
       </c>
       <c r="B321" t="s">
-        <v>175</v>
+        <v>631</v>
       </c>
       <c r="C321" t="s">
-        <v>175</v>
+        <v>670</v>
       </c>
       <c r="D321" t="s">
-        <v>664</v>
+        <v>718</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -14666,7 +14666,7 @@
         <v>160</v>
       </c>
       <c r="B322" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="C322" t="s">
         <v>670</v>
@@ -14680,7 +14680,7 @@
         <v>160</v>
       </c>
       <c r="B323" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="C323" t="s">
         <v>670</v>
@@ -14694,13 +14694,13 @@
         <v>160</v>
       </c>
       <c r="B324" t="s">
-        <v>641</v>
+        <v>176</v>
       </c>
       <c r="C324" t="s">
-        <v>670</v>
+        <v>176</v>
       </c>
       <c r="D324" t="s">
-        <v>718</v>
+        <v>664</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -14708,10 +14708,10 @@
         <v>160</v>
       </c>
       <c r="B325" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C325" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D325" t="s">
         <v>664</v>
@@ -14722,7 +14722,7 @@
         <v>160</v>
       </c>
       <c r="B326" t="s">
-        <v>161</v>
+        <v>634</v>
       </c>
       <c r="C326" t="s">
         <v>161</v>
@@ -14736,10 +14736,10 @@
         <v>160</v>
       </c>
       <c r="B327" t="s">
-        <v>634</v>
+        <v>177</v>
       </c>
       <c r="C327" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D327" t="s">
         <v>664</v>
@@ -14750,10 +14750,10 @@
         <v>160</v>
       </c>
       <c r="B328" t="s">
-        <v>177</v>
+        <v>636</v>
       </c>
       <c r="C328" t="s">
-        <v>177</v>
+        <v>649</v>
       </c>
       <c r="D328" t="s">
         <v>664</v>
@@ -14764,7 +14764,7 @@
         <v>160</v>
       </c>
       <c r="B329" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="C329" t="s">
         <v>649</v>
@@ -14775,13 +14775,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="B330" t="s">
-        <v>649</v>
+        <v>593</v>
       </c>
       <c r="C330" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="D330" t="s">
         <v>664</v>
@@ -14792,7 +14792,7 @@
         <v>65</v>
       </c>
       <c r="B331" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C331" t="s">
         <v>668</v>
@@ -14806,13 +14806,13 @@
         <v>65</v>
       </c>
       <c r="B332" t="s">
-        <v>594</v>
+        <v>109</v>
       </c>
       <c r="C332" t="s">
-        <v>668</v>
+        <v>109</v>
       </c>
       <c r="D332" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -14820,7 +14820,7 @@
         <v>65</v>
       </c>
       <c r="B333" t="s">
-        <v>109</v>
+        <v>603</v>
       </c>
       <c r="C333" t="s">
         <v>109</v>
@@ -14834,7 +14834,7 @@
         <v>65</v>
       </c>
       <c r="B334" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="C334" t="s">
         <v>109</v>
@@ -14848,13 +14848,13 @@
         <v>65</v>
       </c>
       <c r="B335" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C335" t="s">
-        <v>109</v>
+        <v>719</v>
       </c>
       <c r="D335" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -14862,7 +14862,7 @@
         <v>65</v>
       </c>
       <c r="B336" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="C336" t="s">
         <v>719</v>
@@ -14876,7 +14876,7 @@
         <v>65</v>
       </c>
       <c r="B337" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C337" t="s">
         <v>719</v>
@@ -14890,13 +14890,13 @@
         <v>65</v>
       </c>
       <c r="B338" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="C338" t="s">
-        <v>719</v>
+        <v>170</v>
       </c>
       <c r="D338" t="s">
-        <v>664</v>
+        <v>700</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -14904,7 +14904,7 @@
         <v>65</v>
       </c>
       <c r="B339" t="s">
-        <v>583</v>
+        <v>170</v>
       </c>
       <c r="C339" t="s">
         <v>170</v>
@@ -14918,7 +14918,7 @@
         <v>65</v>
       </c>
       <c r="B340" t="s">
-        <v>170</v>
+        <v>584</v>
       </c>
       <c r="C340" t="s">
         <v>170</v>
@@ -14932,13 +14932,13 @@
         <v>65</v>
       </c>
       <c r="B341" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="C341" t="s">
-        <v>170</v>
+        <v>693</v>
       </c>
       <c r="D341" t="s">
-        <v>700</v>
+        <v>664</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -14946,7 +14946,7 @@
         <v>65</v>
       </c>
       <c r="B342" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C342" t="s">
         <v>693</v>
@@ -14960,7 +14960,7 @@
         <v>65</v>
       </c>
       <c r="B343" t="s">
-        <v>608</v>
+        <v>70</v>
       </c>
       <c r="C343" t="s">
         <v>693</v>
@@ -14974,7 +14974,7 @@
         <v>65</v>
       </c>
       <c r="B344" t="s">
-        <v>70</v>
+        <v>609</v>
       </c>
       <c r="C344" t="s">
         <v>693</v>
@@ -14988,7 +14988,7 @@
         <v>65</v>
       </c>
       <c r="B345" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C345" t="s">
         <v>693</v>
@@ -15002,7 +15002,7 @@
         <v>65</v>
       </c>
       <c r="B346" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C346" t="s">
         <v>693</v>
@@ -15016,7 +15016,7 @@
         <v>65</v>
       </c>
       <c r="B347" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C347" t="s">
         <v>693</v>
@@ -15030,7 +15030,7 @@
         <v>65</v>
       </c>
       <c r="B348" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="C348" t="s">
         <v>693</v>
@@ -15044,7 +15044,7 @@
         <v>65</v>
       </c>
       <c r="B349" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C349" t="s">
         <v>693</v>
@@ -15058,7 +15058,7 @@
         <v>65</v>
       </c>
       <c r="B350" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="C350" t="s">
         <v>693</v>
@@ -15072,7 +15072,7 @@
         <v>65</v>
       </c>
       <c r="B351" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C351" t="s">
         <v>693</v>
@@ -15086,7 +15086,7 @@
         <v>65</v>
       </c>
       <c r="B352" t="s">
-        <v>606</v>
+        <v>66</v>
       </c>
       <c r="C352" t="s">
         <v>693</v>
@@ -15100,13 +15100,13 @@
         <v>65</v>
       </c>
       <c r="B353" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="C353" t="s">
-        <v>693</v>
+        <v>167</v>
       </c>
       <c r="D353" t="s">
-        <v>664</v>
+        <v>700</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
@@ -15114,7 +15114,7 @@
         <v>65</v>
       </c>
       <c r="B354" t="s">
-        <v>167</v>
+        <v>559</v>
       </c>
       <c r="C354" t="s">
         <v>167</v>
@@ -15128,7 +15128,7 @@
         <v>65</v>
       </c>
       <c r="B355" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C355" t="s">
         <v>167</v>
@@ -15142,10 +15142,10 @@
         <v>65</v>
       </c>
       <c r="B356" t="s">
-        <v>560</v>
+        <v>164</v>
       </c>
       <c r="C356" t="s">
-        <v>167</v>
+        <v>679</v>
       </c>
       <c r="D356" t="s">
         <v>700</v>
@@ -15156,7 +15156,7 @@
         <v>65</v>
       </c>
       <c r="B357" t="s">
-        <v>164</v>
+        <v>546</v>
       </c>
       <c r="C357" t="s">
         <v>679</v>
@@ -15170,7 +15170,7 @@
         <v>65</v>
       </c>
       <c r="B358" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C358" t="s">
         <v>679</v>
@@ -15184,7 +15184,7 @@
         <v>65</v>
       </c>
       <c r="B359" t="s">
-        <v>547</v>
+        <v>460</v>
       </c>
       <c r="C359" t="s">
         <v>679</v>
@@ -15198,7 +15198,7 @@
         <v>65</v>
       </c>
       <c r="B360" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C360" t="s">
         <v>679</v>
@@ -15212,7 +15212,7 @@
         <v>65</v>
       </c>
       <c r="B361" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C361" t="s">
         <v>679</v>
@@ -15226,7 +15226,7 @@
         <v>65</v>
       </c>
       <c r="B362" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C362" t="s">
         <v>679</v>
@@ -15240,7 +15240,7 @@
         <v>65</v>
       </c>
       <c r="B363" t="s">
-        <v>457</v>
+        <v>565</v>
       </c>
       <c r="C363" t="s">
         <v>679</v>
@@ -15254,7 +15254,7 @@
         <v>65</v>
       </c>
       <c r="B364" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C364" t="s">
         <v>679</v>
@@ -15268,7 +15268,7 @@
         <v>65</v>
       </c>
       <c r="B365" t="s">
-        <v>566</v>
+        <v>461</v>
       </c>
       <c r="C365" t="s">
         <v>679</v>
@@ -15282,7 +15282,7 @@
         <v>65</v>
       </c>
       <c r="B366" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C366" t="s">
         <v>679</v>
@@ -15296,7 +15296,7 @@
         <v>65</v>
       </c>
       <c r="B367" t="s">
-        <v>462</v>
+        <v>571</v>
       </c>
       <c r="C367" t="s">
         <v>679</v>
@@ -15310,7 +15310,7 @@
         <v>65</v>
       </c>
       <c r="B368" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C368" t="s">
         <v>679</v>
@@ -15324,10 +15324,10 @@
         <v>65</v>
       </c>
       <c r="B369" t="s">
-        <v>572</v>
+        <v>165</v>
       </c>
       <c r="C369" t="s">
-        <v>679</v>
+        <v>165</v>
       </c>
       <c r="D369" t="s">
         <v>700</v>
@@ -15338,7 +15338,7 @@
         <v>65</v>
       </c>
       <c r="B370" t="s">
-        <v>165</v>
+        <v>557</v>
       </c>
       <c r="C370" t="s">
         <v>165</v>
@@ -15352,7 +15352,7 @@
         <v>65</v>
       </c>
       <c r="B371" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C371" t="s">
         <v>165</v>
@@ -15366,10 +15366,10 @@
         <v>65</v>
       </c>
       <c r="B372" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="C372" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="D372" t="s">
         <v>700</v>
@@ -15380,7 +15380,7 @@
         <v>65</v>
       </c>
       <c r="B373" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C373" t="s">
         <v>136</v>
@@ -15394,7 +15394,7 @@
         <v>65</v>
       </c>
       <c r="B374" t="s">
-        <v>549</v>
+        <v>136</v>
       </c>
       <c r="C374" t="s">
         <v>136</v>
@@ -15408,10 +15408,10 @@
         <v>65</v>
       </c>
       <c r="B375" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="C375" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="D375" t="s">
         <v>700</v>
@@ -15422,7 +15422,7 @@
         <v>65</v>
       </c>
       <c r="B376" t="s">
-        <v>168</v>
+        <v>544</v>
       </c>
       <c r="C376" t="s">
         <v>168</v>
@@ -15436,7 +15436,7 @@
         <v>65</v>
       </c>
       <c r="B377" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C377" t="s">
         <v>168</v>
@@ -15450,7 +15450,7 @@
         <v>65</v>
       </c>
       <c r="B378" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="C378" t="s">
         <v>168</v>
@@ -15464,7 +15464,7 @@
         <v>65</v>
       </c>
       <c r="B379" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C379" t="s">
         <v>168</v>
@@ -15478,7 +15478,7 @@
         <v>65</v>
       </c>
       <c r="B380" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C380" t="s">
         <v>168</v>
@@ -15492,7 +15492,7 @@
         <v>65</v>
       </c>
       <c r="B381" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C381" t="s">
         <v>168</v>
@@ -15506,10 +15506,10 @@
         <v>65</v>
       </c>
       <c r="B382" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C382" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D382" t="s">
         <v>700</v>
@@ -15520,7 +15520,7 @@
         <v>65</v>
       </c>
       <c r="B383" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C383" t="s">
         <v>163</v>
@@ -15534,7 +15534,7 @@
         <v>65</v>
       </c>
       <c r="B384" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C384" t="s">
         <v>163</v>
@@ -15548,7 +15548,7 @@
         <v>65</v>
       </c>
       <c r="B385" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C385" t="s">
         <v>163</v>
@@ -15562,7 +15562,7 @@
         <v>65</v>
       </c>
       <c r="B386" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="C386" t="s">
         <v>163</v>
@@ -15576,7 +15576,7 @@
         <v>65</v>
       </c>
       <c r="B387" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C387" t="s">
         <v>163</v>
@@ -15590,7 +15590,7 @@
         <v>65</v>
       </c>
       <c r="B388" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C388" t="s">
         <v>163</v>
@@ -15604,7 +15604,7 @@
         <v>65</v>
       </c>
       <c r="B389" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C389" t="s">
         <v>163</v>
@@ -15618,7 +15618,7 @@
         <v>65</v>
       </c>
       <c r="B390" t="s">
-        <v>553</v>
+        <v>458</v>
       </c>
       <c r="C390" t="s">
         <v>163</v>
@@ -15632,7 +15632,7 @@
         <v>65</v>
       </c>
       <c r="B391" t="s">
-        <v>458</v>
+        <v>573</v>
       </c>
       <c r="C391" t="s">
         <v>163</v>
@@ -15646,7 +15646,7 @@
         <v>65</v>
       </c>
       <c r="B392" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C392" t="s">
         <v>163</v>
@@ -15660,7 +15660,7 @@
         <v>65</v>
       </c>
       <c r="B393" t="s">
-        <v>574</v>
+        <v>511</v>
       </c>
       <c r="C393" t="s">
         <v>163</v>
@@ -15674,7 +15674,7 @@
         <v>65</v>
       </c>
       <c r="B394" t="s">
-        <v>511</v>
+        <v>601</v>
       </c>
       <c r="C394" t="s">
         <v>163</v>
@@ -15688,7 +15688,7 @@
         <v>65</v>
       </c>
       <c r="B395" t="s">
-        <v>601</v>
+        <v>163</v>
       </c>
       <c r="C395" t="s">
         <v>163</v>
@@ -15702,7 +15702,7 @@
         <v>65</v>
       </c>
       <c r="B396" t="s">
-        <v>163</v>
+        <v>554</v>
       </c>
       <c r="C396" t="s">
         <v>163</v>
@@ -15716,7 +15716,7 @@
         <v>65</v>
       </c>
       <c r="B397" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C397" t="s">
         <v>163</v>
@@ -15730,7 +15730,7 @@
         <v>65</v>
       </c>
       <c r="B398" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C398" t="s">
         <v>163</v>
@@ -15744,7 +15744,7 @@
         <v>65</v>
       </c>
       <c r="B399" t="s">
-        <v>556</v>
+        <v>510</v>
       </c>
       <c r="C399" t="s">
         <v>163</v>
@@ -15758,10 +15758,10 @@
         <v>65</v>
       </c>
       <c r="B400" t="s">
-        <v>510</v>
+        <v>591</v>
       </c>
       <c r="C400" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="D400" t="s">
         <v>700</v>
@@ -15772,7 +15772,7 @@
         <v>65</v>
       </c>
       <c r="B401" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C401" t="s">
         <v>120</v>
@@ -15786,7 +15786,7 @@
         <v>65</v>
       </c>
       <c r="B402" t="s">
-        <v>592</v>
+        <v>336</v>
       </c>
       <c r="C402" t="s">
         <v>120</v>
@@ -15800,7 +15800,7 @@
         <v>65</v>
       </c>
       <c r="B403" t="s">
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="C403" t="s">
         <v>120</v>
@@ -15814,7 +15814,7 @@
         <v>65</v>
       </c>
       <c r="B404" t="s">
-        <v>120</v>
+        <v>589</v>
       </c>
       <c r="C404" t="s">
         <v>120</v>
@@ -15828,7 +15828,7 @@
         <v>65</v>
       </c>
       <c r="B405" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C405" t="s">
         <v>120</v>
@@ -15842,7 +15842,7 @@
         <v>65</v>
       </c>
       <c r="B406" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C406" t="s">
         <v>120</v>
@@ -15856,10 +15856,10 @@
         <v>65</v>
       </c>
       <c r="B407" t="s">
-        <v>596</v>
+        <v>101</v>
       </c>
       <c r="C407" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D407" t="s">
         <v>700</v>
@@ -15870,7 +15870,7 @@
         <v>65</v>
       </c>
       <c r="B408" t="s">
-        <v>101</v>
+        <v>567</v>
       </c>
       <c r="C408" t="s">
         <v>101</v>
@@ -15884,7 +15884,7 @@
         <v>65</v>
       </c>
       <c r="B409" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C409" t="s">
         <v>101</v>
@@ -15898,10 +15898,10 @@
         <v>65</v>
       </c>
       <c r="B410" t="s">
-        <v>568</v>
+        <v>166</v>
       </c>
       <c r="C410" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="D410" t="s">
         <v>700</v>
@@ -15912,7 +15912,7 @@
         <v>65</v>
       </c>
       <c r="B411" t="s">
-        <v>166</v>
+        <v>550</v>
       </c>
       <c r="C411" t="s">
         <v>166</v>
@@ -15926,7 +15926,7 @@
         <v>65</v>
       </c>
       <c r="B412" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C412" t="s">
         <v>166</v>
@@ -15940,10 +15940,10 @@
         <v>65</v>
       </c>
       <c r="B413" t="s">
-        <v>551</v>
+        <v>169</v>
       </c>
       <c r="C413" t="s">
-        <v>166</v>
+        <v>680</v>
       </c>
       <c r="D413" t="s">
         <v>700</v>
@@ -15954,7 +15954,7 @@
         <v>65</v>
       </c>
       <c r="B414" t="s">
-        <v>169</v>
+        <v>542</v>
       </c>
       <c r="C414" t="s">
         <v>680</v>
@@ -15968,7 +15968,7 @@
         <v>65</v>
       </c>
       <c r="B415" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C415" t="s">
         <v>680</v>
@@ -15979,16 +15979,16 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B416" t="s">
-        <v>543</v>
+        <v>90</v>
       </c>
       <c r="C416" t="s">
-        <v>680</v>
+        <v>90</v>
       </c>
       <c r="D416" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -15996,10 +15996,10 @@
         <v>77</v>
       </c>
       <c r="B417" t="s">
-        <v>90</v>
+        <v>306</v>
       </c>
       <c r="C417" t="s">
-        <v>90</v>
+        <v>306</v>
       </c>
       <c r="D417" t="s">
         <v>718</v>
@@ -16010,10 +16010,10 @@
         <v>77</v>
       </c>
       <c r="B418" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C418" t="s">
-        <v>306</v>
+        <v>83</v>
       </c>
       <c r="D418" t="s">
         <v>718</v>
@@ -16024,10 +16024,10 @@
         <v>77</v>
       </c>
       <c r="B419" t="s">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="C419" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D419" t="s">
         <v>718</v>
@@ -16038,10 +16038,10 @@
         <v>77</v>
       </c>
       <c r="B420" t="s">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="C420" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D420" t="s">
         <v>718</v>
@@ -16052,10 +16052,10 @@
         <v>77</v>
       </c>
       <c r="B421" t="s">
-        <v>322</v>
+        <v>85</v>
       </c>
       <c r="C421" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D421" t="s">
         <v>718</v>
@@ -16066,10 +16066,10 @@
         <v>77</v>
       </c>
       <c r="B422" t="s">
-        <v>85</v>
+        <v>321</v>
       </c>
       <c r="C422" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D422" t="s">
         <v>718</v>
@@ -16080,7 +16080,7 @@
         <v>77</v>
       </c>
       <c r="B423" t="s">
-        <v>321</v>
+        <v>92</v>
       </c>
       <c r="C423" t="s">
         <v>92</v>
@@ -16094,10 +16094,10 @@
         <v>77</v>
       </c>
       <c r="B424" t="s">
-        <v>92</v>
+        <v>319</v>
       </c>
       <c r="C424" t="s">
-        <v>92</v>
+        <v>670</v>
       </c>
       <c r="D424" t="s">
         <v>718</v>
@@ -16108,7 +16108,7 @@
         <v>77</v>
       </c>
       <c r="B425" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C425" t="s">
         <v>670</v>
@@ -16122,7 +16122,7 @@
         <v>77</v>
       </c>
       <c r="B426" t="s">
-        <v>307</v>
+        <v>84</v>
       </c>
       <c r="C426" t="s">
         <v>670</v>
@@ -16136,7 +16136,7 @@
         <v>77</v>
       </c>
       <c r="B427" t="s">
-        <v>84</v>
+        <v>316</v>
       </c>
       <c r="C427" t="s">
         <v>670</v>
@@ -16150,7 +16150,7 @@
         <v>77</v>
       </c>
       <c r="B428" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C428" t="s">
         <v>670</v>
@@ -16164,7 +16164,7 @@
         <v>77</v>
       </c>
       <c r="B429" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C429" t="s">
         <v>670</v>
@@ -16178,10 +16178,10 @@
         <v>77</v>
       </c>
       <c r="B430" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C430" t="s">
-        <v>670</v>
+        <v>82</v>
       </c>
       <c r="D430" t="s">
         <v>718</v>
@@ -16192,7 +16192,7 @@
         <v>77</v>
       </c>
       <c r="B431" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C431" t="s">
         <v>82</v>
@@ -16206,7 +16206,7 @@
         <v>77</v>
       </c>
       <c r="B432" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C432" t="s">
         <v>82</v>
@@ -16220,10 +16220,10 @@
         <v>77</v>
       </c>
       <c r="B433" t="s">
-        <v>301</v>
+        <v>86</v>
       </c>
       <c r="C433" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D433" t="s">
         <v>718</v>
@@ -16234,10 +16234,10 @@
         <v>77</v>
       </c>
       <c r="B434" t="s">
-        <v>86</v>
+        <v>300</v>
       </c>
       <c r="C434" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D434" t="s">
         <v>718</v>
@@ -16248,10 +16248,10 @@
         <v>77</v>
       </c>
       <c r="B435" t="s">
-        <v>300</v>
+        <v>88</v>
       </c>
       <c r="C435" t="s">
-        <v>81</v>
+        <v>671</v>
       </c>
       <c r="D435" t="s">
         <v>718</v>
@@ -16262,10 +16262,10 @@
         <v>77</v>
       </c>
       <c r="B436" t="s">
-        <v>88</v>
+        <v>309</v>
       </c>
       <c r="C436" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D436" t="s">
         <v>718</v>
@@ -16276,7 +16276,7 @@
         <v>77</v>
       </c>
       <c r="B437" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C437" t="s">
         <v>669</v>
@@ -16290,7 +16290,7 @@
         <v>77</v>
       </c>
       <c r="B438" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C438" t="s">
         <v>669</v>
@@ -16304,7 +16304,7 @@
         <v>77</v>
       </c>
       <c r="B439" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C439" t="s">
         <v>669</v>
@@ -16318,7 +16318,7 @@
         <v>77</v>
       </c>
       <c r="B440" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C440" t="s">
         <v>669</v>
@@ -16332,7 +16332,7 @@
         <v>77</v>
       </c>
       <c r="B441" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C441" t="s">
         <v>669</v>
@@ -16346,7 +16346,7 @@
         <v>77</v>
       </c>
       <c r="B442" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C442" t="s">
         <v>669</v>
@@ -16360,7 +16360,7 @@
         <v>77</v>
       </c>
       <c r="B443" t="s">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="C443" t="s">
         <v>669</v>
@@ -16374,7 +16374,7 @@
         <v>77</v>
       </c>
       <c r="B444" t="s">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="C444" t="s">
         <v>669</v>
@@ -16388,10 +16388,10 @@
         <v>77</v>
       </c>
       <c r="B445" t="s">
-        <v>313</v>
+        <v>538</v>
       </c>
       <c r="C445" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="D445" t="s">
         <v>718</v>
@@ -16399,16 +16399,16 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B446" t="s">
-        <v>538</v>
+        <v>52</v>
       </c>
       <c r="C446" t="s">
-        <v>681</v>
+        <v>52</v>
       </c>
       <c r="D446" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
@@ -16416,10 +16416,10 @@
         <v>29</v>
       </c>
       <c r="B447" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
       <c r="C447" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D447" t="s">
         <v>716</v>
@@ -16430,7 +16430,7 @@
         <v>29</v>
       </c>
       <c r="B448" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="C448" t="s">
         <v>42</v>
@@ -16444,7 +16444,7 @@
         <v>29</v>
       </c>
       <c r="B449" t="s">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="C449" t="s">
         <v>42</v>
@@ -16458,10 +16458,10 @@
         <v>29</v>
       </c>
       <c r="B450" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C450" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D450" t="s">
         <v>716</v>
@@ -16472,7 +16472,7 @@
         <v>29</v>
       </c>
       <c r="B451" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C451" t="s">
         <v>38</v>
@@ -16486,7 +16486,7 @@
         <v>29</v>
       </c>
       <c r="B452" t="s">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="C452" t="s">
         <v>38</v>
@@ -16500,10 +16500,10 @@
         <v>29</v>
       </c>
       <c r="B453" t="s">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="C453" t="s">
-        <v>38</v>
+        <v>711</v>
       </c>
       <c r="D453" t="s">
         <v>716</v>
@@ -16514,7 +16514,7 @@
         <v>29</v>
       </c>
       <c r="B454" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="C454" t="s">
         <v>711</v>
@@ -16528,10 +16528,10 @@
         <v>29</v>
       </c>
       <c r="B455" t="s">
-        <v>227</v>
+        <v>51</v>
       </c>
       <c r="C455" t="s">
-        <v>711</v>
+        <v>51</v>
       </c>
       <c r="D455" t="s">
         <v>716</v>
@@ -16542,7 +16542,7 @@
         <v>29</v>
       </c>
       <c r="B456" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="C456" t="s">
         <v>51</v>
@@ -16556,7 +16556,7 @@
         <v>29</v>
       </c>
       <c r="B457" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C457" t="s">
         <v>51</v>
@@ -16570,7 +16570,7 @@
         <v>29</v>
       </c>
       <c r="B458" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C458" t="s">
         <v>51</v>
@@ -16584,7 +16584,7 @@
         <v>29</v>
       </c>
       <c r="B459" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C459" t="s">
         <v>51</v>
@@ -16598,7 +16598,7 @@
         <v>29</v>
       </c>
       <c r="B460" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C460" t="s">
         <v>51</v>
@@ -16612,7 +16612,7 @@
         <v>29</v>
       </c>
       <c r="B461" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C461" t="s">
         <v>51</v>
@@ -16626,7 +16626,7 @@
         <v>29</v>
       </c>
       <c r="B462" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C462" t="s">
         <v>51</v>
@@ -16640,7 +16640,7 @@
         <v>29</v>
       </c>
       <c r="B463" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C463" t="s">
         <v>51</v>
@@ -16654,7 +16654,7 @@
         <v>29</v>
       </c>
       <c r="B464" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C464" t="s">
         <v>51</v>
@@ -16668,7 +16668,7 @@
         <v>29</v>
       </c>
       <c r="B465" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C465" t="s">
         <v>51</v>
@@ -16682,10 +16682,10 @@
         <v>29</v>
       </c>
       <c r="B466" t="s">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="C466" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D466" t="s">
         <v>716</v>
@@ -16696,7 +16696,7 @@
         <v>29</v>
       </c>
       <c r="B467" t="s">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="C467" t="s">
         <v>45</v>
@@ -16710,7 +16710,7 @@
         <v>29</v>
       </c>
       <c r="B468" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C468" t="s">
         <v>45</v>
@@ -16724,7 +16724,7 @@
         <v>29</v>
       </c>
       <c r="B469" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C469" t="s">
         <v>45</v>
@@ -16738,7 +16738,7 @@
         <v>29</v>
       </c>
       <c r="B470" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C470" t="s">
         <v>45</v>
@@ -16752,10 +16752,10 @@
         <v>29</v>
       </c>
       <c r="B471" t="s">
-        <v>258</v>
+        <v>31</v>
       </c>
       <c r="C471" t="s">
-        <v>45</v>
+        <v>712</v>
       </c>
       <c r="D471" t="s">
         <v>716</v>
@@ -16766,7 +16766,7 @@
         <v>29</v>
       </c>
       <c r="B472" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C472" t="s">
         <v>712</v>
@@ -16780,7 +16780,7 @@
         <v>29</v>
       </c>
       <c r="B473" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C473" t="s">
         <v>712</v>
@@ -16794,7 +16794,7 @@
         <v>29</v>
       </c>
       <c r="B474" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C474" t="s">
         <v>712</v>
@@ -16808,7 +16808,7 @@
         <v>29</v>
       </c>
       <c r="B475" t="s">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="C475" t="s">
         <v>712</v>
@@ -16822,7 +16822,7 @@
         <v>29</v>
       </c>
       <c r="B476" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C476" t="s">
         <v>712</v>
@@ -16836,7 +16836,7 @@
         <v>29</v>
       </c>
       <c r="B477" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C477" t="s">
         <v>712</v>
@@ -16850,7 +16850,7 @@
         <v>29</v>
       </c>
       <c r="B478" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C478" t="s">
         <v>712</v>
@@ -16864,7 +16864,7 @@
         <v>29</v>
       </c>
       <c r="B479" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C479" t="s">
         <v>712</v>
@@ -16878,7 +16878,7 @@
         <v>29</v>
       </c>
       <c r="B480" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C480" t="s">
         <v>712</v>
@@ -16892,7 +16892,7 @@
         <v>29</v>
       </c>
       <c r="B481" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C481" t="s">
         <v>712</v>
@@ -16906,7 +16906,7 @@
         <v>29</v>
       </c>
       <c r="B482" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="C482" t="s">
         <v>712</v>
@@ -16920,7 +16920,7 @@
         <v>29</v>
       </c>
       <c r="B483" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C483" t="s">
         <v>712</v>
@@ -16934,10 +16934,10 @@
         <v>29</v>
       </c>
       <c r="B484" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C484" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D484" t="s">
         <v>716</v>
@@ -16948,7 +16948,7 @@
         <v>29</v>
       </c>
       <c r="B485" t="s">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="C485" t="s">
         <v>713</v>
@@ -16962,7 +16962,7 @@
         <v>29</v>
       </c>
       <c r="B486" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C486" t="s">
         <v>713</v>
@@ -16976,7 +16976,7 @@
         <v>29</v>
       </c>
       <c r="B487" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C487" t="s">
         <v>713</v>
@@ -16990,7 +16990,7 @@
         <v>29</v>
       </c>
       <c r="B488" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C488" t="s">
         <v>713</v>
@@ -17004,7 +17004,7 @@
         <v>29</v>
       </c>
       <c r="B489" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C489" t="s">
         <v>713</v>
@@ -17018,7 +17018,7 @@
         <v>29</v>
       </c>
       <c r="B490" t="s">
-        <v>48</v>
+        <v>237</v>
       </c>
       <c r="C490" t="s">
         <v>713</v>
@@ -17032,7 +17032,7 @@
         <v>29</v>
       </c>
       <c r="B491" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="C491" t="s">
         <v>713</v>
@@ -17046,7 +17046,7 @@
         <v>29</v>
       </c>
       <c r="B492" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C492" t="s">
         <v>713</v>
@@ -17060,7 +17060,7 @@
         <v>29</v>
       </c>
       <c r="B493" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="C493" t="s">
         <v>713</v>
@@ -17074,7 +17074,7 @@
         <v>29</v>
       </c>
       <c r="B494" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="C494" t="s">
         <v>713</v>
@@ -17088,7 +17088,7 @@
         <v>29</v>
       </c>
       <c r="B495" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C495" t="s">
         <v>713</v>
@@ -17102,7 +17102,7 @@
         <v>29</v>
       </c>
       <c r="B496" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C496" t="s">
         <v>713</v>
@@ -17116,7 +17116,7 @@
         <v>29</v>
       </c>
       <c r="B497" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="C497" t="s">
         <v>713</v>
@@ -17130,7 +17130,7 @@
         <v>29</v>
       </c>
       <c r="B498" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="C498" t="s">
         <v>713</v>
@@ -17144,7 +17144,7 @@
         <v>29</v>
       </c>
       <c r="B499" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="C499" t="s">
         <v>713</v>
@@ -17158,7 +17158,7 @@
         <v>29</v>
       </c>
       <c r="B500" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="C500" t="s">
         <v>713</v>
@@ -17172,7 +17172,7 @@
         <v>29</v>
       </c>
       <c r="B501" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C501" t="s">
         <v>713</v>
@@ -17186,7 +17186,7 @@
         <v>29</v>
       </c>
       <c r="B502" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C502" t="s">
         <v>713</v>
@@ -17200,7 +17200,7 @@
         <v>29</v>
       </c>
       <c r="B503" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C503" t="s">
         <v>713</v>
@@ -17214,7 +17214,7 @@
         <v>29</v>
       </c>
       <c r="B504" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C504" t="s">
         <v>713</v>
@@ -17228,7 +17228,7 @@
         <v>29</v>
       </c>
       <c r="B505" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C505" t="s">
         <v>713</v>
@@ -17242,7 +17242,7 @@
         <v>29</v>
       </c>
       <c r="B506" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C506" t="s">
         <v>713</v>
@@ -17256,7 +17256,7 @@
         <v>29</v>
       </c>
       <c r="B507" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C507" t="s">
         <v>713</v>
@@ -17270,7 +17270,7 @@
         <v>29</v>
       </c>
       <c r="B508" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="C508" t="s">
         <v>713</v>
@@ -17284,7 +17284,7 @@
         <v>29</v>
       </c>
       <c r="B509" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="C509" t="s">
         <v>713</v>
@@ -17298,7 +17298,7 @@
         <v>29</v>
       </c>
       <c r="B510" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C510" t="s">
         <v>713</v>
@@ -17312,7 +17312,7 @@
         <v>29</v>
       </c>
       <c r="B511" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="C511" t="s">
         <v>713</v>
@@ -17326,7 +17326,7 @@
         <v>29</v>
       </c>
       <c r="B512" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="C512" t="s">
         <v>713</v>
@@ -17340,10 +17340,10 @@
         <v>29</v>
       </c>
       <c r="B513" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="C513" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D513" t="s">
         <v>716</v>
@@ -17354,7 +17354,7 @@
         <v>29</v>
       </c>
       <c r="B514" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
       <c r="C514" t="s">
         <v>714</v>
@@ -17368,7 +17368,7 @@
         <v>29</v>
       </c>
       <c r="B515" t="s">
-        <v>333</v>
+        <v>50</v>
       </c>
       <c r="C515" t="s">
         <v>714</v>
@@ -17382,7 +17382,7 @@
         <v>29</v>
       </c>
       <c r="B516" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
       <c r="C516" t="s">
         <v>714</v>
@@ -17396,7 +17396,7 @@
         <v>29</v>
       </c>
       <c r="B517" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c r="C517" t="s">
         <v>714</v>
@@ -17410,10 +17410,10 @@
         <v>29</v>
       </c>
       <c r="B518" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C518" t="s">
-        <v>714</v>
+        <v>44</v>
       </c>
       <c r="D518" t="s">
         <v>716</v>
@@ -17424,7 +17424,7 @@
         <v>29</v>
       </c>
       <c r="B519" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="C519" t="s">
         <v>44</v>
@@ -17438,7 +17438,7 @@
         <v>29</v>
       </c>
       <c r="B520" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C520" t="s">
         <v>44</v>
@@ -17452,7 +17452,7 @@
         <v>29</v>
       </c>
       <c r="B521" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C521" t="s">
         <v>44</v>
@@ -17466,7 +17466,7 @@
         <v>29</v>
       </c>
       <c r="B522" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C522" t="s">
         <v>44</v>
@@ -17480,7 +17480,7 @@
         <v>29</v>
       </c>
       <c r="B523" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C523" t="s">
         <v>44</v>
@@ -17494,10 +17494,10 @@
         <v>29</v>
       </c>
       <c r="B524" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="C524" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D524" t="s">
         <v>716</v>
@@ -17508,7 +17508,7 @@
         <v>29</v>
       </c>
       <c r="B525" t="s">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="C525" t="s">
         <v>41</v>
@@ -17522,7 +17522,7 @@
         <v>29</v>
       </c>
       <c r="B526" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C526" t="s">
         <v>41</v>
@@ -17536,7 +17536,7 @@
         <v>29</v>
       </c>
       <c r="B527" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C527" t="s">
         <v>41</v>
@@ -17550,7 +17550,7 @@
         <v>29</v>
       </c>
       <c r="B528" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C528" t="s">
         <v>41</v>
@@ -17564,10 +17564,10 @@
         <v>29</v>
       </c>
       <c r="B529" t="s">
-        <v>242</v>
+        <v>46</v>
       </c>
       <c r="C529" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D529" t="s">
         <v>716</v>
@@ -17578,7 +17578,7 @@
         <v>29</v>
       </c>
       <c r="B530" t="s">
-        <v>46</v>
+        <v>264</v>
       </c>
       <c r="C530" t="s">
         <v>46</v>
@@ -17592,7 +17592,7 @@
         <v>29</v>
       </c>
       <c r="B531" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C531" t="s">
         <v>46</v>
@@ -17606,7 +17606,7 @@
         <v>29</v>
       </c>
       <c r="B532" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C532" t="s">
         <v>46</v>
@@ -17620,7 +17620,7 @@
         <v>29</v>
       </c>
       <c r="B533" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C533" t="s">
         <v>46</v>
@@ -17634,7 +17634,7 @@
         <v>29</v>
       </c>
       <c r="B534" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C534" t="s">
         <v>46</v>
@@ -17648,10 +17648,10 @@
         <v>29</v>
       </c>
       <c r="B535" t="s">
-        <v>263</v>
+        <v>43</v>
       </c>
       <c r="C535" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D535" t="s">
         <v>716</v>
@@ -17662,7 +17662,7 @@
         <v>29</v>
       </c>
       <c r="B536" t="s">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="C536" t="s">
         <v>43</v>
@@ -17676,7 +17676,7 @@
         <v>29</v>
       </c>
       <c r="B537" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C537" t="s">
         <v>43</v>
@@ -17690,7 +17690,7 @@
         <v>29</v>
       </c>
       <c r="B538" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C538" t="s">
         <v>43</v>
@@ -17704,10 +17704,10 @@
         <v>29</v>
       </c>
       <c r="B539" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="C539" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="D539" t="s">
         <v>716</v>
@@ -17718,10 +17718,10 @@
         <v>29</v>
       </c>
       <c r="B540" t="s">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="C540" t="s">
-        <v>178</v>
+        <v>710</v>
       </c>
       <c r="D540" t="s">
         <v>716</v>
@@ -17729,16 +17729,16 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="B541" t="s">
-        <v>49</v>
+        <v>485</v>
       </c>
       <c r="C541" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="D541" t="s">
-        <v>716</v>
+        <v>666</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
@@ -17746,10 +17746,10 @@
         <v>128</v>
       </c>
       <c r="B542" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="C542" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D542" t="s">
         <v>666</v>
@@ -17760,7 +17760,7 @@
         <v>128</v>
       </c>
       <c r="B543" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C543" t="s">
         <v>688</v>
@@ -17774,10 +17774,10 @@
         <v>128</v>
       </c>
       <c r="B544" t="s">
-        <v>489</v>
+        <v>173</v>
       </c>
       <c r="C544" t="s">
-        <v>688</v>
+        <v>640</v>
       </c>
       <c r="D544" t="s">
         <v>666</v>
@@ -17788,10 +17788,10 @@
         <v>128</v>
       </c>
       <c r="B545" t="s">
-        <v>173</v>
+        <v>496</v>
       </c>
       <c r="C545" t="s">
-        <v>640</v>
+        <v>496</v>
       </c>
       <c r="D545" t="s">
         <v>666</v>
@@ -17802,10 +17802,10 @@
         <v>128</v>
       </c>
       <c r="B546" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="C546" t="s">
-        <v>496</v>
+        <v>686</v>
       </c>
       <c r="D546" t="s">
         <v>666</v>
@@ -17816,10 +17816,10 @@
         <v>128</v>
       </c>
       <c r="B547" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="C547" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="D547" t="s">
         <v>666</v>
@@ -17830,7 +17830,7 @@
         <v>128</v>
       </c>
       <c r="B548" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C548" t="s">
         <v>691</v>
@@ -17844,10 +17844,10 @@
         <v>128</v>
       </c>
       <c r="B549" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C549" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D549" t="s">
         <v>666</v>
@@ -17858,10 +17858,10 @@
         <v>128</v>
       </c>
       <c r="B550" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C550" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D550" t="s">
         <v>666</v>
@@ -17872,10 +17872,10 @@
         <v>128</v>
       </c>
       <c r="B551" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C551" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D551" t="s">
         <v>666</v>
@@ -17886,7 +17886,7 @@
         <v>128</v>
       </c>
       <c r="B552" t="s">
-        <v>490</v>
+        <v>643</v>
       </c>
       <c r="C552" t="s">
         <v>689</v>
@@ -17900,7 +17900,7 @@
         <v>128</v>
       </c>
       <c r="B553" t="s">
-        <v>643</v>
+        <v>508</v>
       </c>
       <c r="C553" t="s">
         <v>689</v>
@@ -17914,10 +17914,10 @@
         <v>128</v>
       </c>
       <c r="B554" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="C554" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="D554" t="s">
         <v>666</v>
@@ -17928,7 +17928,7 @@
         <v>128</v>
       </c>
       <c r="B555" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="C555" t="s">
         <v>675</v>
@@ -17942,7 +17942,7 @@
         <v>128</v>
       </c>
       <c r="B556" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C556" t="s">
         <v>675</v>
@@ -17956,7 +17956,7 @@
         <v>128</v>
       </c>
       <c r="B557" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C557" t="s">
         <v>675</v>
@@ -17970,7 +17970,7 @@
         <v>128</v>
       </c>
       <c r="B558" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C558" t="s">
         <v>675</v>
@@ -17984,7 +17984,7 @@
         <v>128</v>
       </c>
       <c r="B559" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="C559" t="s">
         <v>675</v>
@@ -17998,7 +17998,7 @@
         <v>128</v>
       </c>
       <c r="B560" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C560" t="s">
         <v>675</v>
@@ -18012,7 +18012,7 @@
         <v>128</v>
       </c>
       <c r="B561" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C561" t="s">
         <v>675</v>
@@ -18026,7 +18026,7 @@
         <v>128</v>
       </c>
       <c r="B562" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C562" t="s">
         <v>675</v>
@@ -18040,7 +18040,7 @@
         <v>128</v>
       </c>
       <c r="B563" t="s">
-        <v>488</v>
+        <v>129</v>
       </c>
       <c r="C563" t="s">
         <v>675</v>
@@ -18054,7 +18054,7 @@
         <v>128</v>
       </c>
       <c r="B564" t="s">
-        <v>129</v>
+        <v>484</v>
       </c>
       <c r="C564" t="s">
         <v>675</v>
@@ -18068,7 +18068,7 @@
         <v>128</v>
       </c>
       <c r="B565" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C565" t="s">
         <v>675</v>
@@ -18082,10 +18082,10 @@
         <v>128</v>
       </c>
       <c r="B566" t="s">
-        <v>487</v>
+        <v>645</v>
       </c>
       <c r="C566" t="s">
-        <v>675</v>
+        <v>23</v>
       </c>
       <c r="D566" t="s">
         <v>666</v>
@@ -18096,10 +18096,10 @@
         <v>128</v>
       </c>
       <c r="B567" t="s">
-        <v>645</v>
+        <v>503</v>
       </c>
       <c r="C567" t="s">
-        <v>23</v>
+        <v>503</v>
       </c>
       <c r="D567" t="s">
         <v>666</v>
@@ -18110,10 +18110,10 @@
         <v>128</v>
       </c>
       <c r="B568" t="s">
-        <v>503</v>
+        <v>642</v>
       </c>
       <c r="C568" t="s">
-        <v>503</v>
+        <v>715</v>
       </c>
       <c r="D568" t="s">
         <v>666</v>
@@ -18124,7 +18124,7 @@
         <v>128</v>
       </c>
       <c r="B569" t="s">
-        <v>642</v>
+        <v>505</v>
       </c>
       <c r="C569" t="s">
         <v>715</v>
@@ -18138,10 +18138,10 @@
         <v>128</v>
       </c>
       <c r="B570" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C570" t="s">
-        <v>715</v>
+        <v>501</v>
       </c>
       <c r="D570" t="s">
         <v>666</v>
@@ -18152,10 +18152,10 @@
         <v>128</v>
       </c>
       <c r="B571" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C571" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D571" t="s">
         <v>666</v>
@@ -18163,16 +18163,16 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="B572" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="C572" t="s">
-        <v>507</v>
+        <v>668</v>
       </c>
       <c r="D572" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
@@ -18180,7 +18180,7 @@
         <v>75</v>
       </c>
       <c r="B573" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C573" t="s">
         <v>668</v>
@@ -18194,10 +18194,10 @@
         <v>75</v>
       </c>
       <c r="B574" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C574" t="s">
-        <v>668</v>
+        <v>159</v>
       </c>
       <c r="D574" t="s">
         <v>664</v>
@@ -18208,10 +18208,10 @@
         <v>75</v>
       </c>
       <c r="B575" t="s">
-        <v>530</v>
+        <v>155</v>
       </c>
       <c r="C575" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D575" t="s">
         <v>664</v>
@@ -18222,10 +18222,10 @@
         <v>75</v>
       </c>
       <c r="B576" t="s">
-        <v>155</v>
+        <v>468</v>
       </c>
       <c r="C576" t="s">
-        <v>155</v>
+        <v>665</v>
       </c>
       <c r="D576" t="s">
         <v>664</v>
@@ -18236,13 +18236,13 @@
         <v>75</v>
       </c>
       <c r="B577" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="C577" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="D577" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
@@ -18250,10 +18250,10 @@
         <v>75</v>
       </c>
       <c r="B578" t="s">
-        <v>527</v>
+        <v>76</v>
       </c>
       <c r="C578" t="s">
-        <v>683</v>
+        <v>76</v>
       </c>
       <c r="D578" t="s">
         <v>716</v>
@@ -18264,13 +18264,13 @@
         <v>75</v>
       </c>
       <c r="B579" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="C579" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="D579" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
@@ -18278,13 +18278,13 @@
         <v>75</v>
       </c>
       <c r="B580" t="s">
-        <v>156</v>
+        <v>537</v>
       </c>
       <c r="C580" t="s">
-        <v>156</v>
+        <v>670</v>
       </c>
       <c r="D580" t="s">
-        <v>664</v>
+        <v>718</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
@@ -18292,13 +18292,13 @@
         <v>75</v>
       </c>
       <c r="B581" t="s">
-        <v>537</v>
+        <v>158</v>
       </c>
       <c r="C581" t="s">
-        <v>670</v>
+        <v>158</v>
       </c>
       <c r="D581" t="s">
-        <v>718</v>
+        <v>664</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
@@ -18306,13 +18306,13 @@
         <v>75</v>
       </c>
       <c r="B582" t="s">
-        <v>158</v>
+        <v>531</v>
       </c>
       <c r="C582" t="s">
-        <v>158</v>
+        <v>674</v>
       </c>
       <c r="D582" t="s">
-        <v>664</v>
+        <v>716</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
@@ -18320,10 +18320,10 @@
         <v>75</v>
       </c>
       <c r="B583" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C583" t="s">
-        <v>674</v>
+        <v>93</v>
       </c>
       <c r="D583" t="s">
         <v>716</v>
@@ -18334,7 +18334,7 @@
         <v>75</v>
       </c>
       <c r="B584" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C584" t="s">
         <v>93</v>
@@ -18348,10 +18348,10 @@
         <v>75</v>
       </c>
       <c r="B585" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C585" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="D585" t="s">
         <v>716</v>
@@ -18362,13 +18362,13 @@
         <v>75</v>
       </c>
       <c r="B586" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C586" t="s">
-        <v>132</v>
+        <v>663</v>
       </c>
       <c r="D586" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
@@ -18376,13 +18376,13 @@
         <v>75</v>
       </c>
       <c r="B587" t="s">
-        <v>528</v>
+        <v>157</v>
       </c>
       <c r="C587" t="s">
-        <v>663</v>
+        <v>157</v>
       </c>
       <c r="D587" t="s">
-        <v>717</v>
+        <v>664</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
@@ -18390,13 +18390,13 @@
         <v>75</v>
       </c>
       <c r="B588" t="s">
-        <v>157</v>
+        <v>541</v>
       </c>
       <c r="C588" t="s">
-        <v>157</v>
+        <v>669</v>
       </c>
       <c r="D588" t="s">
-        <v>664</v>
+        <v>718</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
@@ -18404,34 +18404,20 @@
         <v>75</v>
       </c>
       <c r="B589" t="s">
-        <v>541</v>
+        <v>154</v>
       </c>
       <c r="C589" t="s">
-        <v>669</v>
+        <v>154</v>
       </c>
       <c r="D589" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A590" t="s">
-        <v>75</v>
-      </c>
-      <c r="B590" t="s">
-        <v>154</v>
-      </c>
-      <c r="C590" t="s">
-        <v>154</v>
-      </c>
-      <c r="D590" t="s">
         <v>664</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D590">
-    <sortCondition ref="A2:A590"/>
-    <sortCondition ref="C2:C590"/>
-    <sortCondition ref="B2:B590"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D589">
+    <sortCondition ref="A2:A589"/>
+    <sortCondition ref="C2:C589"/>
+    <sortCondition ref="B2:B589"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18463,15 +18449,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010098C197DC67C0514EB308983AEF32E983" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f898f0c13543cc6ed1476ff5e11ef558">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d55fa3f-3c18-425b-9faa-377f011f8097" xmlns:ns3="39d3cee1-f650-41e8-9a2f-4357c6682977" xmlns:ns4="2beaef9f-cf1f-479f-a374-c737fe2c05cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d83e4d7437733eef1dcfe998b035c769" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="3d55fa3f-3c18-425b-9faa-377f011f8097"/>
@@ -18713,15 +18690,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2528B50-2D2F-404D-8D04-3DE49BD9C1DE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3244C1AE-4861-49B7-84DA-FD941160872F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18739,4 +18717,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2528B50-2D2F-404D-8D04-3DE49BD9C1DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>